--- a/WSTS/WSTS-Historical-Billings-Report-Sep2023.xlsx
+++ b/WSTS/WSTS-Historical-Billings-Report-Sep2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tpwsts-my.sharepoint.com/personal/admin_tpwsts_onmicrosoft_com/Documents/WSTS/2-WSTS-Statistic-Reports/Blue Book/Blue Book 2023/BB 09 2023/BB-09-23-final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Documents\GitHub\datasets\WSTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{E25EABCA-48BB-495F-86A4-46D738EA61F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C605609-A13F-492B-BBA8-2F011AF186BB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA355D8-BA4A-4A7C-9B9D-9142EF430098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Data" sheetId="1" r:id="rId1"/>
@@ -876,19 +876,19 @@
       <selection pane="bottomRight" activeCell="H225" sqref="H225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="7" customWidth="1"/>
-    <col min="15" max="18" width="11.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="7" customWidth="1"/>
+    <col min="15" max="18" width="11.125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -896,7 +896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -13557,7 +13557,7 @@
       <formula>ISTEXT($A5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A228:E230 K228:L230 B228:J232">
+  <conditionalFormatting sqref="B228:J232 A228:E230 K228:L230">
     <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>ISNUMBER($A228)</formula>
     </cfRule>
@@ -13608,16 +13608,16 @@
       <selection pane="bottomRight" activeCell="H231" sqref="H231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="17" width="9.33203125" customWidth="1"/>
-    <col min="18" max="18" width="3.77734375" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="17" width="9.375" customWidth="1"/>
+    <col min="18" max="18" width="3.75" customWidth="1"/>
+    <col min="19" max="19" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -13625,14 +13625,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="1"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
